--- a/T3Dir/V2Folder/Scot's College Staff.xlsx
+++ b/T3Dir/V2Folder/Scot's College Staff.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48.5</v>
+        <v>96.75</v>
       </c>
       <c r="D2" t="n">
-        <v>727.5</v>
+        <v>2178.75</v>
       </c>
     </row>
     <row r="3">
@@ -475,10 +475,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42.25</v>
+        <v>79.75</v>
       </c>
       <c r="D3" t="n">
-        <v>633.75</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="4"/>
